--- a/generated-tests/firebrigade/backend/interactive/metrics.xlsx
+++ b/generated-tests/firebrigade/backend/interactive/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\backend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB14745E-BE07-465D-BDFA-8CB12A2B3E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D759059-60B9-45A3-AE82-CC2C7FAB1FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Test</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>firebrigade-2.spec</t>
+  </si>
+  <si>
+    <t>user-1.spec</t>
+  </si>
+  <si>
+    <t>user-2.spec</t>
   </si>
 </sst>
 </file>
@@ -692,7 +698,7 @@
   <dimension ref="D5:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,44 +1023,92 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="9"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="21">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2">
+        <v>100</v>
+      </c>
+      <c r="H19" s="22">
+        <v>100</v>
+      </c>
+      <c r="I19" s="6">
+        <v>31</v>
+      </c>
+      <c r="J19" s="6">
+        <v>30</v>
+      </c>
+      <c r="K19" s="6">
+        <v>9</v>
+      </c>
       <c r="L19" s="26"/>
     </row>
     <row r="20" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D20" s="9"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="23">
+        <v>96</v>
+      </c>
+      <c r="G20" s="3">
+        <v>89</v>
+      </c>
+      <c r="H20" s="24">
+        <v>96</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="26"/>
     </row>
     <row r="21" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D21" s="9"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="21">
+        <v>94</v>
+      </c>
+      <c r="G21" s="2">
+        <v>33</v>
+      </c>
+      <c r="H21" s="22">
+        <v>94</v>
+      </c>
+      <c r="I21" s="6">
+        <v>42</v>
+      </c>
+      <c r="J21" s="6">
+        <v>28</v>
+      </c>
+      <c r="K21" s="6">
+        <v>6</v>
+      </c>
       <c r="L21" s="26"/>
     </row>
     <row r="22" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="11"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="24"/>
+      <c r="E22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="23">
+        <v>91</v>
+      </c>
+      <c r="G22" s="3">
+        <v>84</v>
+      </c>
+      <c r="H22" s="24">
+        <v>91</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>

--- a/generated-tests/firebrigade/backend/interactive/metrics.xlsx
+++ b/generated-tests/firebrigade/backend/interactive/metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\backend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D759059-60B9-45A3-AE82-CC2C7FAB1FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601444AD-BB2D-4ED9-A252-31605C3F411A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Test</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>user-2.spec</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t>nur für</t>
+  </si>
+  <si>
+    <t>Service</t>
   </si>
 </sst>
 </file>
@@ -123,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +166,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -324,11 +342,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -356,6 +426,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -695,20 +783,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="D5:L32"/>
+  <dimension ref="C5:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="33"/>
       <c r="D5" s="8" t="s">
         <v>0</v>
       </c>
@@ -735,7 +825,8 @@
       </c>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="33"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
       <c r="F6" s="18"/>
@@ -746,7 +837,8 @@
       <c r="K6" s="4"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="33"/>
       <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
@@ -773,7 +865,8 @@
       </c>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="33"/>
       <c r="D8" s="11"/>
       <c r="E8" s="15" t="s">
         <v>10</v>
@@ -792,7 +885,8 @@
       <c r="K8" s="7"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="33"/>
       <c r="D9" s="10" t="s">
         <v>11</v>
       </c>
@@ -819,7 +913,8 @@
       </c>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="33"/>
       <c r="D10" s="11"/>
       <c r="E10" s="15" t="s">
         <v>10</v>
@@ -838,7 +933,8 @@
       <c r="K10" s="7"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="33"/>
       <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
@@ -865,7 +961,8 @@
       </c>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="33"/>
       <c r="D12" s="11"/>
       <c r="E12" s="15" t="s">
         <v>10</v>
@@ -884,7 +981,8 @@
       <c r="K12" s="7"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="33"/>
       <c r="D13" s="10" t="s">
         <v>14</v>
       </c>
@@ -911,7 +1009,8 @@
       </c>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="33"/>
       <c r="D14" s="11"/>
       <c r="E14" s="15" t="s">
         <v>10</v>
@@ -930,7 +1029,8 @@
       <c r="K14" s="7"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="33"/>
       <c r="D15" s="10" t="s">
         <v>15</v>
       </c>
@@ -957,7 +1057,8 @@
       </c>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="33"/>
       <c r="D16" s="11"/>
       <c r="E16" s="15" t="s">
         <v>10</v>
@@ -976,7 +1077,8 @@
       <c r="K16" s="7"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="33"/>
       <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1003,7 +1105,8 @@
       </c>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="33"/>
       <c r="D18" s="11"/>
       <c r="E18" s="15" t="s">
         <v>10</v>
@@ -1022,7 +1125,8 @@
       <c r="K18" s="7"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="33"/>
       <c r="D19" s="10" t="s">
         <v>17</v>
       </c>
@@ -1049,7 +1153,8 @@
       </c>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="33"/>
       <c r="D20" s="11"/>
       <c r="E20" s="15" t="s">
         <v>10</v>
@@ -1068,7 +1173,8 @@
       <c r="K20" s="7"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="33"/>
       <c r="D21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1201,8 @@
       </c>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="33"/>
       <c r="D22" s="11"/>
       <c r="E22" s="15" t="s">
         <v>10</v>
@@ -1114,7 +1221,8 @@
       <c r="K22" s="7"/>
       <c r="L22" s="26"/>
     </row>
-    <row r="23" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="33"/>
       <c r="D23" s="10"/>
       <c r="E23" s="14"/>
       <c r="F23" s="21"/>
@@ -1125,7 +1233,8 @@
       <c r="K23" s="6"/>
       <c r="L23" s="26"/>
     </row>
-    <row r="24" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="33"/>
       <c r="D24" s="11"/>
       <c r="E24" s="15"/>
       <c r="F24" s="23"/>
@@ -1136,7 +1245,8 @@
       <c r="K24" s="7"/>
       <c r="L24" s="26"/>
     </row>
-    <row r="25" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="33"/>
       <c r="D25" s="10"/>
       <c r="E25" s="14"/>
       <c r="F25" s="21"/>
@@ -1147,7 +1257,8 @@
       <c r="K25" s="6"/>
       <c r="L25" s="26"/>
     </row>
-    <row r="26" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="33"/>
       <c r="D26" s="11"/>
       <c r="E26" s="15"/>
       <c r="F26" s="23"/>
@@ -1158,7 +1269,8 @@
       <c r="K26" s="7"/>
       <c r="L26" s="26"/>
     </row>
-    <row r="27" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="33"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13"/>
       <c r="F27" s="18"/>
@@ -1169,29 +1281,54 @@
       <c r="K27" s="4"/>
       <c r="L27" s="26"/>
     </row>
-    <row r="28" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D28" s="9"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+    <row r="28" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32">
+        <f>SUM(I7:I21)</f>
+        <v>143</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32">
+        <f>SUM(K7:K21)</f>
+        <v>28</v>
+      </c>
       <c r="L28" s="26"/>
     </row>
-    <row r="29" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D29" s="9"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+    <row r="29" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="23">
+        <f>ROUND(AVERAGE(F8,F10,F12,F14,F16,F18,F20,F22),0)</f>
+        <v>89</v>
+      </c>
+      <c r="G29" s="3">
+        <f>ROUND(AVERAGE(G8,G10,G12,G14,G16,G18,G20,G22),0)</f>
+        <v>81</v>
+      </c>
+      <c r="H29" s="24">
+        <f>ROUND(AVERAGE(H8,H10,H12,H14,H16,H18,H20,H22),0)</f>
+        <v>88</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7">
+        <f>ROUND(AVERAGE(J7:J21),0)</f>
+        <v>23</v>
+      </c>
+      <c r="K29" s="7"/>
       <c r="L29" s="26"/>
     </row>
-    <row r="30" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="33"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13"/>
       <c r="F30" s="18"/>
@@ -1202,18 +1339,26 @@
       <c r="K30" s="4"/>
       <c r="L30" s="26"/>
     </row>
-    <row r="31" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="33"/>
       <c r="D31" s="9"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="F31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="26"/>
     </row>
-    <row r="32" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="33"/>
       <c r="D32" s="9"/>
       <c r="E32" s="13"/>
       <c r="F32" s="18"/>

--- a/generated-tests/firebrigade/backend/interactive/metrics.xlsx
+++ b/generated-tests/firebrigade/backend/interactive/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\backend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601444AD-BB2D-4ED9-A252-31605C3F411A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22131EB8-24EF-469C-BD37-2E5040E96548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Test</t>
   </si>
@@ -786,7 +786,7 @@
   <dimension ref="C5:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,8 +860,8 @@
       <c r="J7" s="6">
         <v>17</v>
       </c>
-      <c r="K7" s="6">
-        <v>2</v>
+      <c r="K7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="L7" s="26"/>
     </row>
@@ -1297,7 +1297,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32">
         <f>SUM(K7:K21)</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L28" s="26"/>
     </row>

--- a/generated-tests/firebrigade/backend/interactive/metrics.xlsx
+++ b/generated-tests/firebrigade/backend/interactive/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\backend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22131EB8-24EF-469C-BD37-2E5040E96548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF2637C-1EC3-484E-A067-94FAD74E1825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Test</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Service</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
+  </si>
+  <si>
+    <t>Std.-Abw.</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -443,6 +452,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,15 +801,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="C5:L32"/>
+  <dimension ref="C5:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="12" width="15.7109375" customWidth="1"/>
@@ -1328,33 +1346,46 @@
       <c r="L29" s="26"/>
     </row>
     <row r="30" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C30" s="33"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="C30" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32">
+        <f>MEDIAN(J7:J21)</f>
+        <v>24</v>
+      </c>
+      <c r="K30" s="32"/>
       <c r="L30" s="26"/>
     </row>
     <row r="31" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C31" s="33"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="C31" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="39">
+        <f>ROUND(_xlfn.STDEV.P(F8,F10,F12,F14,F16,F18,F20,F22),1)</f>
+        <v>5.9</v>
+      </c>
+      <c r="G31" s="40">
+        <f>ROUND(_xlfn.STDEV.P(G8,G10,G12,G14,G16,G18,G20,G22),1)</f>
+        <v>17.5</v>
+      </c>
+      <c r="H31" s="41">
+        <f>ROUND(_xlfn.STDEV.P(H8,H10,H12,H14,H16,H18,H20,H22),1)</f>
+        <v>6.3</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7">
+        <f>ROUND(_xlfn.STDEV.P(J7:J21),1)</f>
+        <v>7.1</v>
+      </c>
+      <c r="K31" s="7"/>
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -1369,6 +1400,51 @@
       <c r="K32" s="4"/>
       <c r="L32" s="26"/>
     </row>
+    <row r="33" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="33"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="33"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="33"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/generated-tests/firebrigade/backend/interactive/metrics.xlsx
+++ b/generated-tests/firebrigade/backend/interactive/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\backend\interactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF2637C-1EC3-484E-A067-94FAD74E1825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54ECC7F-89B5-4571-B7ED-766B07BB08BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Test</t>
   </si>
@@ -804,7 +804,7 @@
   <dimension ref="C5:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,9 +1351,18 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
+      <c r="F30" s="29">
+        <f>MEDIAN(F8,F10,F12,F14,F16,F18,F20,F22)</f>
+        <v>90</v>
+      </c>
+      <c r="G30" s="30">
+        <f>MEDIAN(G8,G10,G12,G14,G16,G18,G20,G22)</f>
+        <v>86</v>
+      </c>
+      <c r="H30" s="31">
+        <f>MEDIAN(H8,H10,H12,H14,H16,H18,H20,H22)</f>
+        <v>89.5</v>
+      </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32">
         <f>MEDIAN(J7:J21)</f>
@@ -1422,7 +1431,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="13"/>
       <c r="F34" s="36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>21</v>
@@ -1438,9 +1447,15 @@
       <c r="C35" s="33"/>
       <c r="D35" s="9"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
+      <c r="F35" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
